--- a/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>69.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.76</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>75.21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519056</t>
+          <t>519011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通内需热点混合</t>
+          <t>海富通精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>75.46</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001208</t>
+          <t>519056</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安低碳经济股票A</t>
+          <t>海富通内需热点混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>75.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2972</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010349</t>
+          <t>010220</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安低碳经济股票C</t>
+          <t>海富通消费核心资产混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519015</t>
+          <t>001208</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通精选贰号混合</t>
+          <t>诺安低碳经济股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>69.79</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>320020</t>
+          <t>519015</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安策略精选股票</t>
+          <t>海富通精选贰号混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.37</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>69.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -744,15 +834,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>66.12</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.28</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010220</t>
+          <t>006881</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海富通消费核心资产混合A</t>
+          <t>华宝大健康混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>72.29</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>69.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -800,15 +910,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>72.29</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.03</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006881</t>
+          <t>001242</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝大健康混合</t>
+          <t>博时中证淘金大数据100指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>69.74</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -846,25 +976,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001242</t>
+          <t>001243</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数A</t>
+          <t>博时中证淘金大数据100指数I</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>93.98</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.06</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001243</t>
+          <t>002938</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数I</t>
+          <t>中银证券健康产业灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519011</t>
+          <t>320020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海富通精选混合</t>
+          <t>诺安策略精选股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>69.61</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002938</t>
+          <t>010349</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中银证券健康产业灵活配置混合</t>
+          <t>诺安低碳经济股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,362 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1484,4 +1485,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6533</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1997,4 +1998,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2006,7 +2007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2017,17 +2018,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2037,14 +2058,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.78</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2053,14 +2096,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.42</v>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2069,14 +2134,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.71</v>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2085,13 +2172,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2329,7 +2330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2340,17 +2341,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2360,14 +2381,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.53</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3190</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2376,14 +2419,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.78</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4">
@@ -2392,14 +2525,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.42</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="5">
@@ -2408,14 +2541,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.71</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
@@ -2424,13 +2557,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2462,7 +2463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2473,17 +2474,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2493,14 +2514,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.37</v>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3743</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2509,14 +2552,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.53</v>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2525,14 +2590,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.78</v>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2541,14 +2628,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.42</v>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2557,14 +2666,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.71</v>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2573,13 +2704,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>0.72</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.78</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.42</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1.71</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -600,6 +617,2076 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011977</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>格林研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011978</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>格林研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华富中小企业100指数增强</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>64.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015245</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南华丰汇混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>64.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +3084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1129,7 +3216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1451,7 +3538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1963,7 +4050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2321,7 +4408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2871,7 +4958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002422-科伦药业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="D2" t="n">
-        <v>1.93</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>0.72</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.37</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.78</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.42</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>1.71</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -616,7 +633,5437 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H139"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159623</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成渝经济圈ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5956</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商安盈债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5037</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2680</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2602</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>41.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016513</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安嘉债券</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011977</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>格林研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012880</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010998</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博道消费智航股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008905</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉合锦鹏添利混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95.75</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008906</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉合锦鹏添利混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005626</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银中证500ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>560100</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011978</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>格林研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>65.05</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>72.47</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014861</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012881</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>015655</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>59.86</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>015656</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>59.86</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014862</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>016480</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>65.05</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2686,7 +8133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3084,7 +8531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3216,7 +8663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3538,7 +8985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4050,7 +9497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4408,7 +9855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4956,136 +10403,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安平衡混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>69.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2306</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>350002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天治低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>75.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0963</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>